--- a/Deliverables/ACH.xlsx
+++ b/Deliverables/ACH.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,61 +19,116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>Lewisite Spill at Groves Annex Chemical</t>
   </si>
   <si>
-    <t>George Prados brother was a security guard at the chemical plant</t>
-  </si>
-  <si>
-    <t>H1: A single person is trafficking Lewisite to Shining Future</t>
-  </si>
-  <si>
-    <t>H3: George Prado is in charge of the trafficking operation</t>
-  </si>
-  <si>
-    <t>H2: A group of people are trafficking Lewisite to Shining Future</t>
-  </si>
-  <si>
-    <t>H5: No trouble involving chemical agents is taking place</t>
-  </si>
-  <si>
     <t>Neutral</t>
   </si>
   <si>
     <t>Supports. Establishes a possible source for George.</t>
   </si>
   <si>
-    <t>Supports. Could be nothing.</t>
-  </si>
-  <si>
     <t>Supports. This is an accident at a military facility. Not suspicious.</t>
   </si>
   <si>
     <t>Suspected E. Coli Cases</t>
   </si>
   <si>
-    <t>H4: Dr. Boynton has caused an E. Coli problem</t>
-  </si>
-  <si>
-    <t>Supports. E. Coli is strongly linked to undercooked beef.</t>
+    <t>George Prado's brother was a security guard at the chemical plant</t>
+  </si>
+  <si>
+    <t>Teenagers believe George Prado is conducting illegal activites at an old missile silo</t>
+  </si>
+  <si>
+    <t>Teenagers exploring the site received mysterious burns and nausea; claimed a smell like a garden</t>
+  </si>
+  <si>
+    <t>Lewisite smells like geraniums and causes these symptoms</t>
+  </si>
+  <si>
+    <t>Ramon Pedro is an envoy to a Shining Future leader</t>
+  </si>
+  <si>
+    <t>A ship carrying apples from Washington to Parazuela crashed, causing mysterious burns</t>
+  </si>
+  <si>
+    <t>The ship's captain made political comments in line with Shining Future</t>
+  </si>
+  <si>
+    <t>Lewisite symptoms could be confused for E. Coli</t>
+  </si>
+  <si>
+    <t>An intoxicated driver was ranting about flowers bringing victory to our shining futures</t>
+  </si>
+  <si>
+    <t>Prado says "our future is as shiny as our apples"</t>
+  </si>
+  <si>
+    <t>Against</t>
+  </si>
+  <si>
+    <t>Supports</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Lewisite has no legitimate non-weapon purpose</t>
+  </si>
+  <si>
+    <t>H1: George Prado is in charge of trafficking Lewisite to Shining Future</t>
+  </si>
+  <si>
+    <t>H2: Someone else is in charge of trafficking Lewisite to Shining Future</t>
+  </si>
+  <si>
+    <t>H4: No trouble involving chemical agents is taking place</t>
+  </si>
+  <si>
+    <t>H3: Dr. Boynton has caused an E. Coli problem, and there is no trafficking</t>
+  </si>
+  <si>
+    <t>Weakly Supports</t>
+  </si>
+  <si>
+    <t>Strongly Supports. E. Coli is strongly linked to undercooked beef.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The teenagers investigated the silo </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the chemical spill</t>
+    </r>
+  </si>
+  <si>
+    <t>Against. Increases the scope of the situation, making Prado less likely as the leader.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -97,8 +152,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,20 +201,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,102 +596,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="54.5" customWidth="1"/>
-    <col min="2" max="2" width="51.5" customWidth="1"/>
-    <col min="3" max="3" width="53.83203125" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
-    <col min="5" max="5" width="52.83203125" customWidth="1"/>
-    <col min="6" max="6" width="53.83203125" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="60">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="66" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="60">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="60">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="80">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="40">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="40">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="40">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="40">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="40">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="80">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="40">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="20">
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C16" s="9">
         <v>8</v>
       </c>
+      <c r="D16" s="9">
+        <v>-5</v>
+      </c>
+      <c r="E16" s="9">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="20">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="3" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
